--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 9 (0, 6, 9, 24, 32)/MDD 7 (35, 22, 50, 45, 28)/ANN_128nodes_Uniform0.05Virtual_Control(0, 6, 9, 24, 32)_MDD(35, 22, 50, 45, 28)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 9 (0, 6, 9, 24, 32)/MDD 7 (35, 22, 50, 45, 28)/ANN_128nodes_Uniform0.05Virtual_Control(0, 6, 9, 24, 32)_MDD(35, 22, 50, 45, 28)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.0003587276537647161</v>
+        <v>1.724903831991619E-08</v>
       </c>
       <c r="E2">
-        <v>0.0003587276537647161</v>
+        <v>1.724903831991619E-08</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.001167886107412523</v>
+        <v>3.209255032175693E-05</v>
       </c>
       <c r="E3">
-        <v>0.001167886107412523</v>
+        <v>3.209255032175693E-05</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9999999992476574</v>
+        <v>0.9999999946810769</v>
       </c>
       <c r="E4">
-        <v>0.9999999992476574</v>
+        <v>0.9999999946810769</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.9999592053019285</v>
+        <v>0.9999935213091597</v>
       </c>
       <c r="E5">
-        <v>0.9999592053019285</v>
+        <v>0.9999935213091597</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9999997715997715</v>
+        <v>0.9999999908814255</v>
       </c>
       <c r="E6">
-        <v>0.9999997715997715</v>
+        <v>0.9999999908814255</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.182426321453527E-06</v>
+        <v>3.37352351957873E-07</v>
       </c>
       <c r="E7">
-        <v>0.9999928175736785</v>
+        <v>0.9999996626476481</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.669269160402916</v>
+        <v>0.9999856222915967</v>
       </c>
       <c r="E8">
-        <v>0.330730839597084</v>
+        <v>1.437770840329033E-05</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -551,13 +551,13 @@
         <v>13</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0.005702166329676759</v>
+        <v>0.8397839618747578</v>
       </c>
       <c r="E9">
-        <v>0.9942978336703232</v>
+        <v>0.1602160381252422</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.482681300051768E-12</v>
+        <v>2.180930155392142E-09</v>
       </c>
       <c r="E10">
-        <v>0.9999999999955174</v>
+        <v>0.9999999978190699</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.003696810367264148</v>
+        <v>1.646093504184164E-05</v>
       </c>
       <c r="E11">
-        <v>0.9963031896327359</v>
+        <v>0.9999835390649582</v>
       </c>
       <c r="F11">
-        <v>9.555191040039062</v>
+        <v>9.554677963256836</v>
       </c>
       <c r="G11">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
